--- a/DAChuyenNganh/wwwroot/templates/RevenueTemplate.xlsx
+++ b/DAChuyenNganh/wwwroot/templates/RevenueTemplate.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7830f4ddc1776551/Desktop/Khóa luận tốt nghiệp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="8_{8EB9A606-61C6-488A-8E6F-985DE3695A42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{744F7440-8704-4427-BD6F-900A3DCDC03F}"/>
+  <xr:revisionPtr revIDLastSave="14" documentId="8_{8EB9A606-61C6-488A-8E6F-985DE3695A42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3E1B3890-640F-4670-BD3D-DB294B09574A}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{82C7141B-17FA-4DD8-93E0-9EAA54F41A67}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Revenue" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -392,10 +392,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54521CF7-2F21-4816-8F82-DDDC398D8531}">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -403,7 +403,7 @@
     <col min="1" max="3" width="25.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -413,6 +413,14 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
+      <c r="D1">
+        <f>SUM(A:A)</f>
+        <v>0</v>
+      </c>
+      <c r="E1">
+        <f>SUM(B:B)</f>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
